--- a/data/eBooks-main/current/modernize-with-azure-containers/Modernize-Existing-.NET-applications-with-Azure-cloud-and-Windows-Containers.pdf.hwaifs/tables/py/gmft/df.tables-3.xlsx
+++ b/data/eBooks-main/current/modernize-with-azure-containers/Modernize-Existing-.NET-applications-with-Azure-cloud-and-Windows-Containers.pdf.hwaifs/tables/py/gmft/df.tables-3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,16 +422,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Next steps ...........................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -439,12 +431,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Walkthrough 3: Deploy your Windows Containers-based app to Azure VMs.............................................</t>
+          <t>dependencies in production environments. By removing those issues, it improves and</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>Dev/Test,</t>
         </is>
       </c>
     </row>
@@ -454,14 +446,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Technical walkthrough availability ............................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
+          <t>DevOps, production operations significantly.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -469,12 +457,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Overview..............................................................................................................................................................................</t>
+          <t>A Docker container is becoming the standard unit of deployment for any application or service.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>server-based</t>
         </is>
       </c>
     </row>
@@ -484,12 +472,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Goals......................................................................................................................................................................................</t>
+          <t>For production environments, you should use an orchestrator (like Kubernetes) to scalable containers–based applications.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>host</t>
         </is>
       </c>
     </row>
@@ -499,14 +487,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Scenarios..............................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
+          <t>Azure VMs hosting containers are a fast and simple way to create small Dev/Test environments in the cloud.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -514,12 +498,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azure VMs for Windows Containers.........................................................................................................................</t>
+          <t>Azure SQL Database Managed Instance is recommended by default when migrating relational databases from existing applications to Azure.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>your</t>
         </is>
       </c>
     </row>
@@ -529,12 +513,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Benefits.................................................................................................................................................................................</t>
+          <t>Visual Studio 2022 and Image2Docker are basic tools for you to start modernizing existing .NET applications with Windows Containers by accelerating the getting learning curve.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>your started</t>
         </is>
       </c>
     </row>
@@ -544,12 +528,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Next steps ...........................................................................................................................................................................</t>
+          <t>When placing containerized applications in production you will always create or</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>adopt a</t>
         </is>
       </c>
     </row>
@@ -559,12 +543,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Walkthrough 4: Deploy your Windows Containers-based apps to Azure Container</t>
+          <t>DevOps culture and DevOps tools for CI/CD pipelines, like Azure DevOps Services</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Instances (ACI). 47</t>
+          <t>or Jenkins.</t>
         </is>
       </c>
     </row>
@@ -574,297 +558,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Technical walkthrough availability ............................................................................................................................</t>
+          <t>Microsoft Azure provides the most comprehensive and complete environment to your existing .NET Framework applications with Windows Containers, cloud PaaS services.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Overview..............................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Goals......................................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Scenarios..............................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Benefits.................................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Considerations...................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Next steps ...........................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Walkthrough 5: Deploy your Windows Containers-based apps to Kubernetes in Azure Service</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Container 48</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>....................................................................................................................................................................................... Technical walkthrough availability ............................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Overview..............................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Goals......................................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Scenarios..............................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Benefits.................................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Next steps ...........................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Walkthrough 6: Deploy your Windows Containers-based apps to Azure App Service for ......................................................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Containers 51</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Technical walkthrough availability ............................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Overview..............................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Goals......................................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Scenario ...............................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Benefits.................................................................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>52</t>
+          <t>modernize infrastructure and</t>
         </is>
       </c>
     </row>
